--- a/tests/excel/render_source_file/simple.xlsx
+++ b/tests/excel/render_source_file/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\userfiles\software-devel\python\pytools\csv_converter\tests\excel\render_source_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E88F3B-BF2F-4039-89E3-D64E6A21398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95453DF0-5854-45DB-9AB6-69EF88311DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31455" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fisher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -80,6 +76,18 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column-G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column-D4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -441,13 +447,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -464,13 +470,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -478,8 +484,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,13 +493,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -507,16 +513,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/tests/excel/render_source_file/simple.xlsx
+++ b/tests/excel/render_source_file/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\userfiles\software-devel\python\pytools\csv_converter\tests\excel\render_source_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95453DF0-5854-45DB-9AB6-69EF88311DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E304CF1-25EE-43F2-BF22-C30CC319E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Adams</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,18 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fisher</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,6 +52,110 @@
   </si>
   <si>
     <t>column-D4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>2G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5G</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,7 +483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -424,114 +494,114 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
